--- a/scenarios/cough/processes/Usability2.xlsx
+++ b/scenarios/cough/processes/Usability2.xlsx
@@ -349,54 +349,7 @@
     <t xml:space="preserve">Folgende Produkte empfehle ich dir, die zu deinen Anforderungen passen und den Wirkstoff enthalten, für den du dich entschieden hast:</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">IF [time] == 'few_days' THEN LOAD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(Explanation), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">JUMP(Safety) ELSE JUMP(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Explanation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
+    <t xml:space="preserve">IF ([time] == few_days) THEN (LOAD(Explanation), JUMP(Safety)) ELSE JUMP(Explanation)</t>
   </si>
   <si>
     <t xml:space="preserve">MATCH([api_calmer], [water], [swallow], [tranport], [fly], [single])</t>
@@ -410,7 +363,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -470,12 +423,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -555,7 +502,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
@@ -700,17 +647,17 @@
   </sheetPr>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E40" activeCellId="0" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.38671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.3"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="54.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="75.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>

--- a/scenarios/cough/processes/Usability2.xlsx
+++ b/scenarios/cough/processes/Usability2.xlsx
@@ -154,7 +154,7 @@
     <t xml:space="preserve">Das sind alle Brausetabletten mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE MedForm == 'Bta' AND API == [api_calmer]</t>
+    <t xml:space="preserve">SELECT * FROM Products WHERE (MedForm == 'Bta' AND API == [api_calmer])</t>
   </si>
   <si>
     <t xml:space="preserve">eli</t>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">Das sind alle einzeldosierten Liquids mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE MedForm == 'Eli' AND API == [api_calmer] </t>
+    <t xml:space="preserve">SELECT * FROM Products WHERE (MedForm == 'Eli' AND API == [api_calmer])</t>
   </si>
   <si>
     <t xml:space="preserve">di_gra</t>
@@ -178,7 +178,7 @@
     <t xml:space="preserve">Das sind alle Direkt-Granulate mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE MedForm == 'DiGra' AND API == [api_calmer] </t>
+    <t xml:space="preserve">SELECT * FROM Products WHERE (MedForm == 'DiGra' AND API == [api_calmer])</t>
   </si>
   <si>
     <t xml:space="preserve">inh</t>
@@ -190,7 +190,7 @@
     <t xml:space="preserve">Das sind alle Inhalier-Lösungen mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE MedForm == 'Inh' AND API == [api_calmer] </t>
+    <t xml:space="preserve">SELECT * FROM Products WHERE (MedForm == 'Inh' AND API == [api_calmer])</t>
   </si>
   <si>
     <t xml:space="preserve">cap</t>
@@ -202,7 +202,7 @@
     <t xml:space="preserve">Das sind alle Kapseln mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE MedForm == 'Kap' AND API == [api_calmer] </t>
+    <t xml:space="preserve">SELECT * FROM Products WHERE (MedForm == 'Kap' AND API == [api_calmer])</t>
   </si>
   <si>
     <t xml:space="preserve">li</t>
@@ -214,7 +214,7 @@
     <t xml:space="preserve">Das sind alle Liquids mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE MedForm == 'Li' AND API == [api_calmer] </t>
+    <t xml:space="preserve">SELECT * FROM Products WHERE (MedForm == 'Li' AND API == [api_calmer])</t>
   </si>
   <si>
     <t xml:space="preserve">lt</t>
@@ -226,7 +226,7 @@
     <t xml:space="preserve">Das sind alle Lutschtabletten mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE MedForm == 'LT' AND API == [api_calmer] </t>
+    <t xml:space="preserve">SELECT * FROM Products WHERE (MedForm == 'LT' AND API == [api_calmer])</t>
   </si>
   <si>
     <t xml:space="preserve">sa</t>
@@ -235,13 +235,13 @@
     <t xml:space="preserve">Saft</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE MedForm == 'Sa' AND API == [api_calmer]</t>
+    <t xml:space="preserve">SELECT * FROM Products WHERE (MedForm == 'Sa' AND API == [api_calmer])</t>
   </si>
   <si>
     <t xml:space="preserve">tab</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE MedForm == 'Tab' AND API == [api_calmer] </t>
+    <t xml:space="preserve">SELECT * FROM Products WHERE (MedForm == 'Tab' AND API == [api_calmer])</t>
   </si>
   <si>
     <t xml:space="preserve">tro</t>
@@ -250,7 +250,7 @@
     <t xml:space="preserve">Tropfen</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE MedForm == 'Tro' AND API == [api_calmer] </t>
+    <t xml:space="preserve">SELECT * FROM Products WHERE (MedForm == 'Tro' AND API == [api_calmer])</t>
   </si>
   <si>
     <t xml:space="preserve">water</t>
@@ -502,7 +502,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
@@ -647,8 +647,8 @@
   </sheetPr>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E40" activeCellId="0" sqref="E40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/scenarios/cough/processes/Usability2.xlsx
+++ b/scenarios/cough/processes/Usability2.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">GO(usability)</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products p JOIN FavProducts f ON f.ProductID == p.ID WHERE f.API == [api_calmer]</t>
+    <t xml:space="preserve">SELECT * FROM Products p JOIN FavProducts f ON f.ProductID == p.ID WHERE f.APIID == [api_calmer]</t>
   </si>
   <si>
     <t xml:space="preserve">usability</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">Das sind alle Brausetabletten mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE (MedForm == 'Bta' AND API == [api_calmer])</t>
+    <t xml:space="preserve">SELECT * FROM Products WHERE (MedFormID == 'Bta' AND APIID == [api_calmer])</t>
   </si>
   <si>
     <t xml:space="preserve">eli</t>
@@ -166,7 +166,35 @@
     <t xml:space="preserve">Das sind alle einzeldosierten Liquids mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE (MedForm == 'Eli' AND API == [api_calmer])</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SELECT * FROM Products WHERE (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">MedFormID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> == 'Eli' AND APIID == [api_calmer])</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">di_gra</t>
@@ -178,7 +206,35 @@
     <t xml:space="preserve">Das sind alle Direkt-Granulate mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE (MedForm == 'DiGra' AND API == [api_calmer])</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SELECT * FROM Products WHERE (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">MedFormID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> == 'DiGra' AND APIID == [api_calmer])</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">inh</t>
@@ -190,7 +246,35 @@
     <t xml:space="preserve">Das sind alle Inhalier-Lösungen mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE (MedForm == 'Inh' AND API == [api_calmer])</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SELECT * FROM Products WHERE (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">MedFormID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> == 'Inh' AND APIID == [api_calmer])</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">cap</t>
@@ -202,7 +286,35 @@
     <t xml:space="preserve">Das sind alle Kapseln mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE (MedForm == 'Kap' AND API == [api_calmer])</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SELECT * FROM Products WHERE (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">MedFormID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> == 'Kap' AND APIID == [api_calmer])</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">li</t>
@@ -214,7 +326,35 @@
     <t xml:space="preserve">Das sind alle Liquids mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE (MedForm == 'Li' AND API == [api_calmer])</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SELECT * FROM Products WHERE (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">MedFormID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> == 'Li' AND APIID == [api_calmer])</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">lt</t>
@@ -226,7 +366,35 @@
     <t xml:space="preserve">Das sind alle Lutschtabletten mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE (MedForm == 'LT' AND API == [api_calmer])</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SELECT * FROM Products WHERE (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">MedFormID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> == 'LT' AND APIID == [api_calmer])</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">sa</t>
@@ -235,13 +403,69 @@
     <t xml:space="preserve">Saft</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE (MedForm == 'Sa' AND API == [api_calmer])</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SELECT * FROM Products WHERE (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">MedFormID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> == 'Sa' AND APIID == [api_calmer])</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">tab</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE (MedForm == 'Tab' AND API == [api_calmer])</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SELECT * FROM Products WHERE (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">MedFormID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> == 'Tab' AND APIID == [api_calmer])</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">tro</t>
@@ -250,7 +474,35 @@
     <t xml:space="preserve">Tropfen</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE (MedForm == 'Tro' AND API == [api_calmer])</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SELECT * FROM Products WHERE (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">MedFormID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> == 'Tro' AND APIID == [api_calmer])</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">water</t>
@@ -363,7 +615,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -422,6 +674,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -648,7 +906,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/scenarios/cough/processes/Usability2.xlsx
+++ b/scenarios/cough/processes/Usability2.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\cough\processes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D061E30F-7FB5-402E-AC03-0A4A5A2EAB1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="13 Usability2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="13 Usability2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,148 +27,148 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="111">
   <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Query</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Usability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Usability</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
   <si>
     <t xml:space="preserve">Das Medikament finde ich am Besten, unter allen Produkten, die den gleichen Wirkstoff enthalten. </t>
   </si>
   <si>
-    <t xml:space="preserve">GO(usability)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT * FROM Products p JOIN FavProducts f ON f.ProductID == p.ID WHERE f.APIID == [api_calmer]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">usability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Es gibt aber noch andere Produkte in einer anderen Form.  Was hättest du denn lieber?</t>
+    <t>GO(usability)</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Products p JOIN FavProducts f ON f.ProductID == p.ID WHERE f.APIID == [api_calmer]</t>
+  </si>
+  <si>
+    <t>usability</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Es gibt aber noch andere Produkte in einer anderen Form.  Was hättest du denn lieber?</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brausetabletten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(bta)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einzelosierte Liquids zum Einnehmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(eli)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direkt Granulat zur Einnahme ohne Wasser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(di_gra)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ein Lösung zum Inhalieren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(inh)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapseln zum Einnehmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(cap)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ein Liquid zum Einnehmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(li)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lutschtabletten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(lt)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ein Sirup zum Einnehmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(sa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabletten zum Einnehmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(tab)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tropfen zum Einnehmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(tro)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ich kann mich nicht entscheiden. Hilfst du mir?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IF [water] THEN GO(match) ELSE GO(water)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brausetablette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das sind alle Brausetabletten mit dem Wirkstoff, den du ausgesucht hast:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE (MedFormID == 'Bta' AND APIID == [api_calmer])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einzeldosiertes Liquid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das sind alle einzeldosierten Liquids mit dem Wirkstoff, den du ausgesucht hast:</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Brausetabletten</t>
+  </si>
+  <si>
+    <t>GO(bta)</t>
+  </si>
+  <si>
+    <t>Einzelosierte Liquids zum Einnehmen</t>
+  </si>
+  <si>
+    <t>GO(eli)</t>
+  </si>
+  <si>
+    <t>Direkt Granulat zur Einnahme ohne Wasser</t>
+  </si>
+  <si>
+    <t>GO(di_gra)</t>
+  </si>
+  <si>
+    <t>Ein Lösung zum Inhalieren</t>
+  </si>
+  <si>
+    <t>GO(inh)</t>
+  </si>
+  <si>
+    <t>Kapseln zum Einnehmen</t>
+  </si>
+  <si>
+    <t>GO(cap)</t>
+  </si>
+  <si>
+    <t>Ein Liquid zum Einnehmen</t>
+  </si>
+  <si>
+    <t>GO(li)</t>
+  </si>
+  <si>
+    <t>Lutschtabletten</t>
+  </si>
+  <si>
+    <t>GO(lt)</t>
+  </si>
+  <si>
+    <t>Ein Sirup zum Einnehmen</t>
+  </si>
+  <si>
+    <t>GO(sa)</t>
+  </si>
+  <si>
+    <t>Tabletten zum Einnehmen</t>
+  </si>
+  <si>
+    <t>GO(tab)</t>
+  </si>
+  <si>
+    <t>Tropfen zum Einnehmen</t>
+  </si>
+  <si>
+    <t>GO(tro)</t>
+  </si>
+  <si>
+    <t>Ich kann mich nicht entscheiden. Hilfst du mir?</t>
+  </si>
+  <si>
+    <t>IF [water] THEN GO(match) ELSE GO(water)</t>
+  </si>
+  <si>
+    <t>bta</t>
+  </si>
+  <si>
+    <t>Brausetablette</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>Das sind alle Brausetabletten mit dem Wirkstoff, den du ausgesucht hast:</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Products WHERE (MedFormID == 'Bta' AND APIID == [api_calmer])</t>
+  </si>
+  <si>
+    <t>eli</t>
+  </si>
+  <si>
+    <t>Einzeldosiertes Liquid</t>
+  </si>
+  <si>
+    <t>Das sind alle einzeldosierten Liquids mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
     <r>
@@ -174,16 +179,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">SELECT * FROM Products WHERE (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">MedFormID</t>
+      <t>SELECT * FROM Products WHERE (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MedFormID</t>
     </r>
     <r>
       <rPr>
@@ -197,13 +202,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">di_gra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direkt-Granulat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das sind alle Direkt-Granulate mit dem Wirkstoff, den du ausgesucht hast:</t>
+    <t>di_gra</t>
+  </si>
+  <si>
+    <t>Direkt-Granulat</t>
+  </si>
+  <si>
+    <t>Das sind alle Direkt-Granulate mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
     <r>
@@ -214,16 +219,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">SELECT * FROM Products WHERE (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">MedFormID</t>
+      <t>SELECT * FROM Products WHERE (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MedFormID</t>
     </r>
     <r>
       <rPr>
@@ -237,13 +242,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">inh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inhalat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das sind alle Inhalier-Lösungen mit dem Wirkstoff, den du ausgesucht hast:</t>
+    <t>inh</t>
+  </si>
+  <si>
+    <t>Inhalat</t>
+  </si>
+  <si>
+    <t>Das sind alle Inhalier-Lösungen mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
     <r>
@@ -254,16 +259,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">SELECT * FROM Products WHERE (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">MedFormID</t>
+      <t>SELECT * FROM Products WHERE (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MedFormID</t>
     </r>
     <r>
       <rPr>
@@ -277,13 +282,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">cap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapsel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das sind alle Kapseln mit dem Wirkstoff, den du ausgesucht hast:</t>
+    <t>cap</t>
+  </si>
+  <si>
+    <t>Kapsel</t>
+  </si>
+  <si>
+    <t>Das sind alle Kapseln mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
     <r>
@@ -294,16 +299,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">SELECT * FROM Products WHERE (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">MedFormID</t>
+      <t>SELECT * FROM Products WHERE (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MedFormID</t>
     </r>
     <r>
       <rPr>
@@ -317,13 +322,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">li</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liquid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das sind alle Liquids mit dem Wirkstoff, den du ausgesucht hast:</t>
+    <t>li</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>Das sind alle Liquids mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
     <r>
@@ -334,16 +339,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">SELECT * FROM Products WHERE (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">MedFormID</t>
+      <t>SELECT * FROM Products WHERE (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MedFormID</t>
     </r>
     <r>
       <rPr>
@@ -357,13 +362,19 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">lt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lutschtablette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das sind alle Lutschtabletten mit dem Wirkstoff, den du ausgesucht hast:</t>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>Lutschtablette</t>
+  </si>
+  <si>
+    <t>Das sind alle Lutschtabletten mit dem Wirkstoff, den du ausgesucht hast:</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>Saft</t>
   </si>
   <si>
     <r>
@@ -374,16 +385,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">SELECT * FROM Products WHERE (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">MedFormID</t>
+      <t>SELECT * FROM Products WHERE (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MedFormID</t>
     </r>
     <r>
       <rPr>
@@ -393,14 +404,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> == 'LT' AND APIID == [api_calmer])</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">sa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saft</t>
+      <t xml:space="preserve"> == 'Sa' AND APIID == [api_calmer])</t>
+    </r>
+  </si>
+  <si>
+    <t>tab</t>
   </si>
   <si>
     <r>
@@ -411,16 +419,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">SELECT * FROM Products WHERE (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">MedFormID</t>
+      <t>SELECT * FROM Products WHERE (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MedFormID</t>
     </r>
     <r>
       <rPr>
@@ -430,11 +438,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> == 'Sa' AND APIID == [api_calmer])</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">tab</t>
+      <t xml:space="preserve"> == 'Tab' AND APIID == [api_calmer])</t>
+    </r>
+  </si>
+  <si>
+    <t>tro</t>
+  </si>
+  <si>
+    <t>Tropfen</t>
   </si>
   <si>
     <r>
@@ -445,16 +456,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">SELECT * FROM Products WHERE (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">MedFormID</t>
+      <t>SELECT * FROM Products WHERE (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MedFormID</t>
     </r>
     <r>
       <rPr>
@@ -464,16 +475,124 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> == 'Tab' AND APIID == [api_calmer])</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">tro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tropfen</t>
-  </si>
-  <si>
+      <t xml:space="preserve"> == 'Tro' AND APIID == [api_calmer])</t>
+    </r>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>Einnahme ohne Wasser</t>
+  </si>
+  <si>
+    <t>Möchtest du das Medikament auch ohne Wasser einnehmen können?</t>
+  </si>
+  <si>
+    <t>[water]</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>GO(swallow)</t>
+  </si>
+  <si>
+    <t>requ</t>
+  </si>
+  <si>
+    <t>Nein</t>
+  </si>
+  <si>
+    <t>notrequ</t>
+  </si>
+  <si>
+    <t>swallow</t>
+  </si>
+  <si>
+    <t>Schluckprobleme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hast du Probleme beim Schlucken? </t>
+  </si>
+  <si>
+    <t>[swallow]</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>Transportabel</t>
+  </si>
+  <si>
+    <t>Bist du viel unterwegs und möchtest ein Medikament, dass man gut transportierenkann?</t>
+  </si>
+  <si>
+    <t>[transport]</t>
+  </si>
+  <si>
+    <t>GO(fly)</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>Fliegen</t>
+  </si>
+  <si>
+    <t>Möchtest du das Medikament mit ins Flugzeug nehmen?</t>
+  </si>
+  <si>
+    <t>[fly]</t>
+  </si>
+  <si>
+    <t>GO(singledosage)</t>
+  </si>
+  <si>
+    <t>singledosage</t>
+  </si>
+  <si>
+    <t>Einzeldosiert</t>
+  </si>
+  <si>
+    <t>Soll eine Dosis extra eingepackt sein, damit du sie nicht mehr abmessen musst?</t>
+  </si>
+  <si>
+    <t>[single]</t>
+  </si>
+  <si>
+    <t>GO(match)</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Folgende Produkte empfehle ich dir, die zu deinen Anforderungen passen und den Wirkstoff enthalten, für den du dich entschieden hast:</t>
+  </si>
+  <si>
+    <t>IF ([time] == few_days) THEN (LOAD(Explanation), JUMP(Safety)) ELSE JUMP(Explanation)</t>
+  </si>
+  <si>
+    <t>MATCH([api_calmer], [water], [swallow], [tranport], [fly], [single])</t>
+  </si>
+  <si>
+    <t>GO(transport)</t>
+  </si>
+  <si>
+    <r>
+      <t>SELECT * FROM Products WHERE (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>MedFormID</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -482,161 +601,21 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">SELECT * FROM Products WHERE (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">MedFormID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> == 'Tro' AND APIID == [api_calmer])</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einnahme ohne Wasser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Möchtest du das Medikament auch ohne Wasser einnehmen können?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[water]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(swallow)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">requ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notrequ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">swallow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schluckprobleme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hast du Probleme beim Schlucken? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[swallow]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(tranport)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transportabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bist du viel unterwegs und möchtest ein Medikament, dass man gut transportierenkann?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[transport]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(fly)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fliegen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Möchtest du das Medikament mit ins Flugzeug nehmen?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[fly]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(singledosage)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">singledosage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Einzeldosiert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soll eine Dosis extra eingepackt sein, damit du sie nicht mehr abmessen musst?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[single]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GO(match)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">match</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Match</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Folgende Produkte empfehle ich dir, die zu deinen Anforderungen passen und den Wirkstoff enthalten, für den du dich entschieden hast:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IF ([time] == few_days) THEN (LOAD(Explanation), JUMP(Safety)) ELSE JUMP(Explanation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MATCH([api_calmer], [water], [swallow], [tranport], [fly], [single])</t>
+      <t xml:space="preserve"> == 'Lt' AND APIID == [api_calmer])</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -646,7 +625,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -660,7 +639,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -668,7 +647,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF4472C4"/>
       <name val="Calibri"/>
@@ -703,14 +682,14 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FFF4B183"/>
       </left>
@@ -725,7 +704,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="thick">
@@ -735,106 +714,61 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="15"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="MetaData_Columns" xfId="20"/>
+  <cellStyles count="2">
+    <cellStyle name="MetaData_Columns" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -893,35 +827,343 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF3652A0"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="54.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="75.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
+    <col min="1" max="1" width="11.3828125" style="1"/>
+    <col min="2" max="2" width="17.3046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3828125" style="1"/>
+    <col min="4" max="4" width="54.69140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.61328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="75.84375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.3828125" customWidth="1"/>
+    <col min="1024" max="1024" width="9.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -944,7 +1186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -964,7 +1206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
@@ -977,7 +1219,7 @@
       </c>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -993,7 +1235,7 @@
       </c>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
@@ -1007,7 +1249,7 @@
       </c>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
@@ -1021,7 +1263,7 @@
       </c>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
@@ -1035,7 +1277,7 @@
       </c>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
@@ -1049,7 +1291,7 @@
       </c>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
@@ -1063,7 +1305,7 @@
       </c>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
@@ -1077,7 +1319,7 @@
       </c>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
@@ -1091,7 +1333,7 @@
       </c>
       <c r="F11" s="12"/>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
@@ -1105,7 +1347,7 @@
       </c>
       <c r="F12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="s">
@@ -1119,7 +1361,7 @@
       </c>
       <c r="F13" s="12"/>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
@@ -1132,7 +1374,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>40</v>
       </c>
@@ -1149,7 +1391,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
         <v>45</v>
       </c>
@@ -1166,7 +1408,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
         <v>49</v>
       </c>
@@ -1183,7 +1425,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>53</v>
       </c>
@@ -1200,7 +1442,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
         <v>57</v>
       </c>
@@ -1217,7 +1459,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
         <v>61</v>
       </c>
@@ -1234,7 +1476,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
         <v>65</v>
       </c>
@@ -1248,15 +1490,15 @@
         <v>67</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A22" s="11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>42</v>
@@ -1265,12 +1507,12 @@
         <v>43</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A23" s="11" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>34</v>
@@ -1282,15 +1524,15 @@
         <v>43</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A24" s="11" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>74</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>42</v>
@@ -1299,301 +1541,296 @@
         <v>43</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>78</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>86</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>87</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C29" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C30" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C33" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C36" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:10" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C38" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="C39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" s="14" t="s">
         <v>105</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>107</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="G40" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/scenarios/cough/processes/Usability2.xlsx
+++ b/scenarios/cough/processes/Usability2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="123">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -346,7 +346,16 @@
     <t xml:space="preserve">[single]</t>
   </si>
   <si>
-    <t xml:space="preserve">GO(match)</t>
+    <t xml:space="preserve">GO(match_decide)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">match_decide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matched = MATCH([api_calmer], [water], [swallow], [transport], [fly], [single]), SAVE(matched), IF (ROWS(matched) == 0) THEN GO(no_match) ELSE GO(match)</t>
   </si>
   <si>
     <t xml:space="preserve">match</t>
@@ -355,13 +364,31 @@
     <t xml:space="preserve">Match</t>
   </si>
   <si>
-    <t xml:space="preserve">Folgende Produkte empfehle ich dir, die zu deinen Anforderungen passen und den Wirkstoff enthalten, für den du dich entschieden hast:</t>
+    <t xml:space="preserve">Folgende Arzneiformen passen optimal zu deinen Bedürfnissen:</t>
   </si>
   <si>
     <t xml:space="preserve">IF ([time] == few_days) THEN (LOAD(Explanation), JUMP(Safety)) ELSE JUMP(Explanation)</t>
   </si>
   <si>
-    <t xml:space="preserve">MATCH([api_calmer], [water], [swallow], [tranport], [fly], [single])</t>
+    <t xml:space="preserve">[matched]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no_match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leider gibt es mit dem Wirkstoff/Extrakt {SELECT Name FROM API WHERE ID == [api_calmer]},den du ausgewählt hast (show chosen API), keine passenden Medikamente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeig mir Produkte in der passenden Arzneiformen aber alternativen Wirkstoffen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINISH()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeig mir Produkte mit dem ausgewählten Wirkstoff aber in einer anderen Arzneiform</t>
   </si>
 </sst>
 </file>
@@ -515,7 +542,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -573,6 +600,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -654,19 +685,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E44" activeCellId="0" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.38671875" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.3"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="54.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="24.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="40.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="75.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.15"/>
@@ -1313,7 +1344,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="1" t="s">
         <v>12</v>
       </c>
@@ -1327,7 +1358,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="1" t="s">
         <v>12</v>
       </c>
@@ -1341,26 +1372,74 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="58.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="C42" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="E42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G42" s="1"/>
+      <c r="D43" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/scenarios/cough/processes/Usability2.xlsx
+++ b/scenarios/cough/processes/Usability2.xlsx
@@ -379,7 +379,7 @@
     <t xml:space="preserve">No Match</t>
   </si>
   <si>
-    <t xml:space="preserve">Leider gibt es mit dem Wirkstoff/Extrakt {SELECT Name FROM API WHERE ID == [api_calmer]},den du ausgewählt hast (show chosen API), keine passenden Medikamente.</t>
+    <t xml:space="preserve">Leider gibt es mit dem Wirkstoff/Extrakt {SELECT Name FROM API WHERE ID == [api_calmer]},den du ausgewählt hast, keine passenden Medikamente.</t>
   </si>
   <si>
     <t xml:space="preserve">Zeig mir Produkte in der passenden Arzneiformen aber alternativen Wirkstoffen</t>
@@ -688,7 +688,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E44" activeCellId="0" sqref="E44"/>
+      <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/scenarios/cough/processes/Usability2.xlsx
+++ b/scenarios/cough/processes/Usability2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="131">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -355,7 +355,7 @@
     <t xml:space="preserve">CODE</t>
   </si>
   <si>
-    <t xml:space="preserve">matched = MATCH([api_calmer], [water], [swallow], [transport], [fly], [single]), SAVE(matched), IF (ROWS(matched) == 0) THEN GO(no_match) ELSE GO(match)</t>
+    <t xml:space="preserve">data = MATCH([api_calmer], [water], [swallow], [transport], [fly], [single]), med_forms = INDEX(0, [data]), SAVE(med_forms), matched = INDEX(1, [data]), SAVE(matched), IF (ROWS([matched]) == 0) THEN GO(no_match) ELSE GO(match)</t>
   </si>
   <si>
     <t xml:space="preserve">match</t>
@@ -385,10 +385,51 @@
     <t xml:space="preserve">Zeig mir Produkte in der passenden Arzneiformen aber alternativen Wirkstoffen</t>
   </si>
   <si>
+    <t xml:space="preserve">GO(same_med_forms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeig mir Produkte mit dem ausgewählten Wirkstoff aber in einer anderen Arzneiform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GO(same_api)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">same_med_forms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same med forms</t>
+  </si>
+  <si>
     <t xml:space="preserve">FINISH()</t>
   </si>
   <si>
-    <t xml:space="preserve">Zeig mir Produkte mit dem ausgewählten Wirkstoff aber in einer anderen Arzneiform</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">category = TO_TEXT(SELECT CategoryPrevMed FROM API WHERE ID == [api_calmer]), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SELECT * FROM Products p JOIN API a ON p.APIID == a.ID WHERE (a.CategoryChoice == [category] AND MedFormID IN [med_forms])</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">same_api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM Products WHERE APIID == [api_calmer]</t>
   </si>
 </sst>
 </file>
@@ -399,7 +440,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -459,6 +500,11 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -542,7 +588,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -604,6 +650,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -685,15 +735,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D44" activeCellId="0" sqref="D44"/>
+      <selection pane="topLeft" activeCell="F45" activeCellId="0" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.3"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="54.7"/>
@@ -1372,14 +1422,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="15" t="s">
         <v>111</v>
       </c>
       <c r="G42" s="1"/>
@@ -1426,7 +1476,7 @@
       <c r="D45" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="15" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1437,8 +1487,42 @@
       <c r="D46" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>121</v>
+      <c r="E46" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/scenarios/cough/processes/Usability2.xlsx
+++ b/scenarios/cough/processes/Usability2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="131">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -163,6 +163,9 @@
     <t xml:space="preserve">Das sind alle Brausetabletten mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
+    <t xml:space="preserve">FINISH()</t>
+  </si>
+  <si>
     <t xml:space="preserve">SELECT * FROM Products WHERE (MedFormID == 'Bta' AND APIID == [api_calmer])</t>
   </si>
   <si>
@@ -398,9 +401,6 @@
   </si>
   <si>
     <t xml:space="preserve">Same med forms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FINISH()</t>
   </si>
   <si>
     <r>
@@ -408,6 +408,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">category = TO_TEXT(SELECT CategoryPrevMed FROM API WHERE ID == [api_calmer]), </t>
     </r>
@@ -440,7 +441,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -500,11 +501,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -653,7 +649,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -737,8 +733,8 @@
   </sheetPr>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F45" activeCellId="0" sqref="F45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -988,7 +984,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
         <v>43</v>
       </c>
@@ -1001,118 +997,139 @@
       <c r="D17" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F17" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>45</v>
@@ -1120,13 +1137,16 @@
       <c r="D24" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F24" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>37</v>
@@ -1137,16 +1157,19 @@
       <c r="D25" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F25" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>45</v>
@@ -1154,25 +1177,28 @@
       <c r="D26" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F26" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1183,13 +1209,13 @@
         <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1200,13 +1226,13 @@
         <v>12</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1214,19 +1240,19 @@
     </row>
     <row r="30" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1237,13 +1263,13 @@
         <v>12</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1254,13 +1280,13 @@
         <v>12</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1268,19 +1294,19 @@
     </row>
     <row r="33" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1291,13 +1317,13 @@
         <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1308,13 +1334,13 @@
         <v>12</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1322,19 +1348,19 @@
     </row>
     <row r="36" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1345,13 +1371,13 @@
         <v>12</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -1362,13 +1388,13 @@
         <v>12</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -1376,19 +1402,19 @@
     </row>
     <row r="39" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -1399,13 +1425,13 @@
         <v>12</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1413,60 +1439,60 @@
         <v>12</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1474,10 +1500,10 @@
         <v>12</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,24 +1511,24 @@
         <v>12</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="F47" s="16" t="s">
         <v>127</v>
@@ -1519,7 +1545,7 @@
         <v>45</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>130</v>

--- a/scenarios/cough/processes/Usability2.xlsx
+++ b/scenarios/cough/processes/Usability2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\cough\processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEA7DB7-FFA2-4E93-BB46-7F1A389966BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9C9C08-3265-47B5-AF71-62E10536FF18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20177" yWindow="3017" windowWidth="11023" windowHeight="6926" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="13 Usability2" sheetId="1" r:id="rId1"/>
@@ -393,14 +393,29 @@
     <t>Same med forms</t>
   </si>
   <si>
+    <t>same_api</t>
+  </si>
+  <si>
+    <t>Same API</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Products WHERE APIID == [api_calmer]</t>
+  </si>
+  <si>
+    <t>CART(), IF ([time] == few_days) THEN (LOAD(Explanation), JUMP(Safety)) ELSE JUMP(Explanation)</t>
+  </si>
+  <si>
+    <t>Ich möchte ein anderes Medikament mit dem Wirkstoff.</t>
+  </si>
+  <si>
+    <t>Mit dem ausgewählten Wirkstoff gibt es Medikamente in verschiedenen Formen. Was möchtest du?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das Medikament finde ich am Besten, unter allen Produkten, die diesen Wirkstoff enthalten. </t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">category = TO_TEXT(SELECT CategoryPrevMed FROM API WHERE ID == [api_calmer]), </t>
+      <t xml:space="preserve">category = TO_TEXT(SELECT CategoryChoice FROM API WHERE ID == [api_calmer]), </t>
     </r>
     <r>
       <rPr>
@@ -412,27 +427,6 @@
       </rPr>
       <t>SELECT * FROM Products p JOIN API a ON p.APIID == a.ID WHERE (a.CategoryChoice == [category] AND MedFormID IN [med_forms])</t>
     </r>
-  </si>
-  <si>
-    <t>same_api</t>
-  </si>
-  <si>
-    <t>Same API</t>
-  </si>
-  <si>
-    <t>SELECT * FROM Products WHERE APIID == [api_calmer]</t>
-  </si>
-  <si>
-    <t>CART(), IF ([time] == few_days) THEN (LOAD(Explanation), JUMP(Safety)) ELSE JUMP(Explanation)</t>
-  </si>
-  <si>
-    <t>Ich möchte ein anderes Medikament mit dem Wirkstoff.</t>
-  </si>
-  <si>
-    <t>Mit dem ausgewählten Wirkstoff gibt es Medikamente in verschiedenen Formen. Was möchtest du?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Das Medikament finde ich am Besten, unter allen Produkten, die diesen Wirkstoff enthalten. </t>
   </si>
 </sst>
 </file>
@@ -984,7 +978,7 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1033,7 +1027,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="1" t="s">
@@ -1050,7 +1044,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -1060,7 +1054,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>13</v>
@@ -1075,7 +1069,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5" s="10"/>
     </row>
@@ -1784,15 +1778,15 @@
         <v>111</v>
       </c>
       <c r="F47" s="16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
+      <c r="B48" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>124</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>41</v>
@@ -1801,7 +1795,7 @@
         <v>111</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/scenarios/cough/processes/Usability2.xlsx
+++ b/scenarios/cough/processes/Usability2.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Add to cart</t>
   </si>
   <si>
-    <t xml:space="preserve">CART(), IF ([time] == few_days) THEN (LOAD(Explanation), JUMP(Safety)) ELSE JUMP(Explanation)</t>
+    <t xml:space="preserve">CART(); IF [time] == few_days THEN LOAD(Explanation); JUMP(Safety) ELSE JUMP(Explanation)</t>
   </si>
   <si>
     <t xml:space="preserve">Ich möchte ein anderes Medikament mit dem Wirkstoff.</t>
@@ -163,10 +163,10 @@
     <t xml:space="preserve">Das sind alle Brausetabletten mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
-    <t xml:space="preserve">IF ([time] == few_days) THEN (LOAD(Explanation), JUMP(Safety)) ELSE JUMP(Explanation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE (MedFormID == 'Bta' AND APIID == [api_calmer])</t>
+    <t xml:space="preserve">IF [time] == few_days THEN LOAD(Explanation); JUMP(Safety) ELSE JUMP(Explanation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT * FROM Products WHERE MedFormID == 'Bta' AND APIID == [api_calmer]</t>
   </si>
   <si>
     <t xml:space="preserve">eli</t>
@@ -178,7 +178,7 @@
     <t xml:space="preserve">Das sind alle einzeldosierten Liquids mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE (MedFormID == 'Eli' AND APIID == [api_calmer])</t>
+    <t xml:space="preserve">SELECT * FROM Products WHERE MedFormID == 'Eli' AND APIID == [api_calmer]</t>
   </si>
   <si>
     <t xml:space="preserve">di_gra</t>
@@ -190,7 +190,7 @@
     <t xml:space="preserve">Das sind alle Direkt-Granulate mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE (MedFormID == 'DiGra' AND APIID == [api_calmer])</t>
+    <t xml:space="preserve">SELECT * FROM Products WHERE MedFormID == 'DiGra' AND APIID == [api_calmer]</t>
   </si>
   <si>
     <t xml:space="preserve">inh</t>
@@ -202,7 +202,7 @@
     <t xml:space="preserve">Das sind alle Inhalier-Lösungen mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE (MedFormID == 'Inh' AND APIID == [api_calmer])</t>
+    <t xml:space="preserve">SELECT * FROM Products WHERE MedFormID == 'Inh' AND APIID == [api_calmer]</t>
   </si>
   <si>
     <t xml:space="preserve">cap</t>
@@ -214,7 +214,7 @@
     <t xml:space="preserve">Das sind alle Kapseln mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE (MedFormID == 'Kap' AND APIID == [api_calmer])</t>
+    <t xml:space="preserve">SELECT * FROM Products WHERE MedFormID == 'Kap' AND APIID == [api_calmer]</t>
   </si>
   <si>
     <t xml:space="preserve">li</t>
@@ -226,7 +226,7 @@
     <t xml:space="preserve">Das sind alle Liquids mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE (MedFormID == 'Li' AND APIID == [api_calmer])</t>
+    <t xml:space="preserve">SELECT * FROM Products WHERE MedFormID == 'Li' AND APIID == [api_calmer]</t>
   </si>
   <si>
     <t xml:space="preserve">lt</t>
@@ -238,7 +238,7 @@
     <t xml:space="preserve">Das sind alle Lutschtabletten mit dem Wirkstoff, den du ausgesucht hast:</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE (MedFormID == 'Lt' AND APIID == [api_calmer])</t>
+    <t xml:space="preserve">SELECT * FROM Products WHERE MedFormID == 'Lt' AND APIID == [api_calmer]</t>
   </si>
   <si>
     <t xml:space="preserve">sa</t>
@@ -247,13 +247,13 @@
     <t xml:space="preserve">Saft</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE (MedFormID == 'Sa' AND APIID == [api_calmer])</t>
+    <t xml:space="preserve">SELECT * FROM Products WHERE MedFormID == 'Sa' AND APIID == [api_calmer]</t>
   </si>
   <si>
     <t xml:space="preserve">tab</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE (MedFormID == 'Tab' AND APIID == [api_calmer])</t>
+    <t xml:space="preserve">SELECT * FROM Products WHERE MedFormID == 'Tab' AND APIID == [api_calmer]</t>
   </si>
   <si>
     <t xml:space="preserve">tro</t>
@@ -262,7 +262,7 @@
     <t xml:space="preserve">Tropfen</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM Products WHERE (MedFormID == 'Tro' AND APIID == [api_calmer])</t>
+    <t xml:space="preserve">SELECT * FROM Products WHERE MedFormID == 'Tro' AND APIID == [api_calmer]</t>
   </si>
   <si>
     <t xml:space="preserve">water</t>
@@ -358,7 +358,7 @@
     <t xml:space="preserve">CODE</t>
   </si>
   <si>
-    <t xml:space="preserve">data = MATCH([api_calmer], [water], [swallow], [transport], [fly], [single]), med_forms = INDEX(0, [data]), SAVE(med_forms), matched = INDEX(1, [data]), SAVE(matched), IF (ROWS([matched]) == 0) THEN GO(no_match) ELSE GO(match)</t>
+    <t xml:space="preserve">{med_forms, matched} = MATCH([api_calmer], [water], [swallow], [transport], [fly], [single]); SAVE(med_forms); SAVE(matched); IF ROWS([matched]) == 0 THEN GO(no_match) ELSE GO(match)</t>
   </si>
   <si>
     <t xml:space="preserve">match</t>
@@ -407,7 +407,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">category = TO_TEXT(SELECT CategoryChoice FROM API WHERE ID == [api_calmer]), </t>
+      <t xml:space="preserve">category = TO_TEXT(SELECT CategoryChoice FROM API WHERE ID == [api_calmer]); </t>
     </r>
     <r>
       <rPr>
@@ -417,7 +417,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">SELECT * FROM Products p JOIN API a ON p.APIID == a.ID WHERE (a.CategoryChoice == [category] AND MedFormID IN [med_forms])</t>
+      <t xml:space="preserve">SELECT * FROM Products p JOIN API a ON p.APIID == a.ID WHERE a.CategoryChoice == [category] AND MedFormID IN [med_forms]</t>
     </r>
   </si>
   <si>
@@ -730,11 +730,11 @@
   </sheetPr>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F53" activeCellId="0" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.38671875" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.3"/>
@@ -787,7 +787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="3" t="s">
@@ -981,7 +981,7 @@
       </c>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
         <v>43</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12" t="s">
         <v>49</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
         <v>53</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
         <v>57</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
         <v>61</v>
       </c>
@@ -1081,7 +1081,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12" t="s">
         <v>65</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
         <v>69</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12" t="s">
         <v>73</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
         <v>76</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12" t="s">
         <v>78</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="87.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>110</v>
       </c>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>113</v>
       </c>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>117</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>124</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="43.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>127</v>
       </c>
@@ -1544,7 +1544,7 @@
       <c r="C48" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F48" s="1" t="s">

--- a/scenarios/cough/processes/Usability2.xlsx
+++ b/scenarios/cough/processes/Usability2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="132">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -43,6 +43,12 @@
     <t xml:space="preserve">Output</t>
   </si>
   <si>
+    <t xml:space="preserve">Hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popup</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product</t>
   </si>
   <si>
@@ -358,7 +364,12 @@
     <t xml:space="preserve">CODE</t>
   </si>
   <si>
-    <t xml:space="preserve">{med_forms, matched} = MATCH([api_calmer], [water], [swallow], [transport], [fly], [single]); SAVE(med_forms); SAVE(matched); IF ROWS([matched]) == 0 THEN GO(no_match) ELSE GO(match)</t>
+    <t xml:space="preserve">{med_forms, matched} = MATCH([api_calmer], [water], [swallow], [transport], [fly], [single]);
+SAVE(med_forms);
+SAVE(matched);
+IF ROWS([matched]) == 0
+  THEN GO(no_match)
+  ELSE GO(match)</t>
   </si>
   <si>
     <t xml:space="preserve">match</t>
@@ -407,7 +418,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">category = TO_TEXT(SELECT CategoryChoice FROM API WHERE ID == [api_calmer]); </t>
+      <t xml:space="preserve">category = TO_TEXT(SELECT CategoryChoice FROM API WHERE ID == [api_calmer]);
+</t>
     </r>
     <r>
       <rPr>
@@ -499,7 +511,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,7 +521,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3652A0"/>
-        <bgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF3465A4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3465A4"/>
+        <bgColor rgb="FF3652A0"/>
       </patternFill>
     </fill>
     <fill>
@@ -581,7 +599,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -594,11 +612,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -614,7 +636,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -708,7 +730,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF3465A4"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -730,8 +752,8 @@
   </sheetPr>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F53" activeCellId="0" sqref="F53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -740,8 +762,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.3"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="54.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="40.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="75.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="56.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="86.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.15"/>
   </cols>
@@ -768,434 +790,440 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7"/>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>16</v>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>21</v>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="13"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="13"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="13"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="13"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="13"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="13"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="13"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="13"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+      <c r="E25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>84</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1203,16 +1231,16 @@
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1220,16 +1248,16 @@
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1237,19 +1265,19 @@
     </row>
     <row r="30" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1257,16 +1285,16 @@
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -1274,16 +1302,16 @@
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1291,19 +1319,19 @@
     </row>
     <row r="33" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -1311,16 +1339,16 @@
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1328,16 +1356,16 @@
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1345,19 +1373,19 @@
     </row>
     <row r="36" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1365,16 +1393,16 @@
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -1382,16 +1410,16 @@
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -1399,19 +1427,19 @@
     </row>
     <row r="39" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -1419,136 +1447,136 @@
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>115</v>
+        <v>47</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>120</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>119</v>
+        <v>20</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>123</v>
+        <v>14</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>126</v>
+        <v>49</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>130</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
